--- a/data/카카오리뷰/kakao_review.xlsx
+++ b/data/카카오리뷰/kakao_review.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2192,31 +2260,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://place.map.kakao.com/13289961</t>
+          <t>https://place.map.kakao.com/27544748</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>영원식당</t>
+          <t>KAREO</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{0: '수제비가 소문대로 정말 맛있더라구요. 다만 웨이팅이 길어요 ㅎㅎ', 1: '좋아요', 2: '방송에 나와서 멀지만 한번 찾아가서 먹었는데  수제비는 되게 밍밍하고 싱거운 맛이에요 김치가 없으면 안 될거같습니다..   특별히 엄청난 맛인지는 모르겠어요', 3: '청결도 떨어짐. 수제비 알맹이는 숙성이 안되서 뻣뻣하기 이를데 없음. 육수는 사골육수인데 계란을 풀고 일찍 저어서 국물이 시원함은 전혀없고 텁텁하기만하고 후추향먼 가득함.', 4: '서비스 최악. 전을 시켰는데도 무조건 기본으로 수제비를 인당 하나씩 시켜야 된다고 함. 게다가 전도 음식 다 먹을때 나왔고 바싹한 느낌 하나도 없고 눅눅함. 수제비도 흔한 수제비 맛. 다시는 안감.', 5: '일단 맛이없음 방송빨', 6: '오...끔찍한 경험했네요. 가시기 전에 참고하세요. 평일 저녁에 친구랑 둘이 갔습니다.  20대 후반이지만 저희가 어려보여서 그런지 뭔지 손님이 두테이블 뿐이었어요. 이른 저녁 시간이라 바쁜 시간이 아닌데 참 불친절하셨는데... 자리 안내 없어서 일단 앉았는데 퉁명하게 자리 이동 시킨 것까진 별 신경 안썼죠. 수저 꺼내느라 수저통 잠깐 열려 있는 거 저희 ...더보기', 7: '보통이에요', 8: '닭볶음탕 정말 맛있게 먹었어요 생각날 것 같아요 수제비나 다른 메뉴도 먹어보고 싶네요 여의도 갈 일 있으면 또 가야지 ~', 9: '불친절하고 설거지상태가 너무함  숟가락 세팅하려는데 나오는것마다 뭐가 묻어있음', 10: '비추!  기다림과 불친절은 각오하셔야... 맛도 그닥~ 옆테이블에서는 먹던 김치 모으는 주방을 적발하기도... ㅜㅜ 방송에 나온 후에 망가진 듯?', 11: '수제비: 후추맛+멸치다시마 국물. 7천원 맛있음!!! 집에서 만든 맛임 추천추천  파전: 계란을 좀 넣으신것 같음 맛있음 ㅎㅎ 오징어가 좀 적긴한데 그래도 기본적으로 맛남 ㅠㅠ15000원  추천☆☆', 12: '비추합니다. 일단 음식이 나오면 책상이 아닌 손님 얼굴에 들이대네요. 저희보고 받으라는거죠,,. 수제비도 솔직히 떡국? 같은 느낌에 특별난게 없어요. 맛도... 굳이 여기서 먹어야하나 하는 느낌이 들었어요. 무엇보다 먹다가 비닐 나오는 건;;  설거지가 제대로 안되서 앞접시에 그대로 묻어있는건  조심하셔야 할거같아요.', 13: '별로예요', 14: '수제비 국물맛은.시원하나  수제비 건데기 맛과 식감은 일반적이다 양은 대인.성인남자에게는 조금 부족한듯 찾아와서 먹을 정도의 맛집하기에는 조금 어렵지 않나 생각한다', 15: '좋아요', 16: '불친절함. 점심에 수제비랑 감자전시키려는데점심에 감자전안된다고 초등학생아이랑 갔는데 수제비 2개시키라고 아주머니 진짜 짜증내시며 말씀하심.매스컴 탔다고 너무 불친절한곳이네요', 17: '제비 수', 18: '좋아요', 19: '보통이에요', 20: '양이 너무 많아요', 21: '좋아요', 22: '수제비 먹을만해요.', 23: '좋아요', 24: '수제비 먹을만 해요', 25: '최고예요', 26: '최고예요', 27: '최고예요', 28: '좋아요', 29: '좋아요', 30: '삼청동이 왜 유명한 지 이해가 안 되게 만드느 집.', 31: '좋아요', 32: '좋아요', 33: '전직장 근처라 자주 가던 곳 아직도 가끔 생각나는 곳', 34: '후추범벅', 35: '맛은 그냥 다 아는수제비맛 아줌마들은 진짜 불친절 다시 가고싶지 않음', 36: '수제비로 유명한집. 점심에 줄이 김', 37: '수제비 짱', 38: '좋아요', 39: '보통이에요', 40: '감자전은 특이하고 수제비는 평범했어요. 사람이 많아서 그런지 양이 적었어요..ㅠㅠ', 41: '좋아요', 42: '좋아요', 43: '최고예요', 44: '좋아요', 45: '여의도 영원식당  깔끔한 수제비가 일품인곳.. ', 46: '다 아는 수제비맛', 47: 'ᆞ', 48: '수제비', 49: '수제비', 50: '수제비', 51: '수제비  걸신 추천', 52: '수제비의 지존'}</t>
+          <t>{0: '가야는이유 : 이와타에서 운영하는 세컨브랜드 안가는이유 : 다시 생각날 맛은 아닌  카레라이스 : 비교하자면 아비꼬와 비슷하지만 살짝 더 나은 편, 후추 매운맛으로 목이 따가운, 돈까스가 맛있어 토핑으로 올리는게 좋을듯 카레우동 : 밥이 같이 나오지만 면 양이 적은', 1: '카레+돈까스 먹엇는데  카레가 달았음  가성비는 별로', 2: '가격대가 비싼 편', 3: '좋아요', 4: '다진 고기가 들어간 카레가 취향은 아니지만 맛은 있다. 카레보다 돈가스를 참 잘 튀겨내는 곳.하지만 작은 편이다. 음식퀄리티나 만족도에 비해 비싼 가격이 조금 흠이라 생각되는 곳', 5: '돈카츠는 바삭하고 카레는 무난함 가격은 쫌 있음', 6: '좋아요', 7: '자주가는 곳 중 한 곳.  카레우동에 들어가는 성분이 바뀌며, 맛은 약간 달라짐.  단무지도 변경 됨.   사장님도 갑자기 안 보이심..바뀐건가..?', 8: '최고예요', 9: '낫배드', 10: '최고예요', 11: '깔끔하고 부드러운 맛', 12: '오고 나갈 때 일본어로 인사를 해주면 비스므리한 카레색을 낸다해서 다 일본식 카레전문점인건가?  카레가 아닌 카레국마냥 걸쭉함이라곤 전혀 없는 점도에, 묽고 밍밍한 맛. 거기에 함께 주문한 돈가스는 잡내에 뻑뻑함까지.. (바삭함은 바로 튀겨내여 괜찮았다지만...)  아무리 개인 입맛의 차이가 있다 하지만, 주방일 스스로 일본카레라 자신있게 말할 수 있을까 ...더보기', 13: '+카레오, 고로케 모두 맛있음.', 14: '조금 아쉬워요', 15: '좋아요', 16: '카레 좋네요! 나름 담백, 깊은 맛!', 17: '좋아요', 18: '좋아요', 19: '좋아요', 20: '보통이에요', 21: '최고예요'}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{0: '5', 1: '4', 2: '1', 3: '1', 4: '1', 5: '1', 6: '1', 7: '3', 8: '5', 9: '2', 10: '1', 11: '5', 12: '1', 13: '1', 14: '3', 15: '4', 16: '1', 17: '3', 18: '4', 19: '3', 20: '4', 21: '4', 22: '3', 23: '4', 24: '2', 25: '5', 26: '5', 27: '5', 28: '4', 29: '4', 30: '5', 31: '4', 32: '4', 33: '4', 34: '5', 35: '1', 36: '5', 37: '5', 38: '4', 39: '3', 40: '3', 41: '4', 42: '4', 43: '5', 44: '4', 45: '5', 46: '3', 47: '', 48: '', 49: '', 50: '', 51: '', 52: '5'}</t>
+          <t>{0: '3', 1: '3', 2: '1', 3: '4', 4: '3', 5: '3', 6: '4', 7: '3', 8: '5', 9: '4', 10: '5', 11: '4', 12: '1', 13: '4', 14: '2', 15: '4', 16: '4', 17: '4', 18: '4', 19: '4', 20: '3', 21: '5'}</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>{0: '2020.08.12', 1: '2020.07.02', 2: '2020.06.28', 3: '2020.05.17', 4: '2020.05.15', 5: '2020.05.10', 6: '2020.05.06', 7: '2020.01.18', 8: '2020.01.06', 9: '2019.12.12', 10: '2019.09.21', 11: '2019.09.20', 12: '2019.08.31', 13: '2019.08.02', 14: '2019.04.21', 15: '2019.04.18', 16: '2019.02.15', 17: '2018.07.17', 18: '2018.05.24', 19: '2018.05.17', 20: '2016.08.07', 21: '2016.03.13', 22: '2016.03.11', 23: '2019.03.01', 24: '2018.07.16', 25: '2018.06.25', 26: '2018.05.31', 27: '2018.03.25', 28: '2018.02.18', 29: '2018.02.11', 30: '2017.11.08', 31: '2017.09.19', 32: '2017.09.02', 33: '2017.05.13', 34: '2017.04.17', 35: '2017.03.20', 36: '2017.03.02', 37: '2017.02.19', 38: '2017.01.27', 39: '2016.12.24', 40: '2016.12.16', 41: '2016.09.27', 42: '2016.07.14', 43: '2016.06.17', 44: '2016.05.30', 45: '2016.05.30', 46: '2016.04.29', 47: '2015.02.05', 48: '2015.01.09', 49: '2014.12.29', 50: '2014.10.22', 51: '2014.07.12', 52: '2015.11.04'}</t>
+          <t>{0: '2020.07.24', 1: '2020.07.11', 2: '2020.07.09', 3: '2020.06.04', 4: '2020.05.23', 5: '2019.09.08', 6: '2019.09.08', 7: '2019.08.16', 8: '2019.08.11', 9: '2019.07.07', 10: '2019.06.08', 11: '2019.05.19', 12: '2019.05.18', 13: '2019.05.16', 14: '2019.01.12', 15: '2017.08.02', 16: '2018.04.18', 17: '2018.03.22', 18: '2017.06.01', 19: '2017.05.28', 20: '2017.04.11', 21: '2016.06.05'}</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -2235,31 +2303,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://place.map.kakao.com/27544748</t>
+          <t>https://place.map.kakao.com/8117894</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KAREO</t>
+          <t>파낙스</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{0: '가야는이유 : 이와타에서 운영하는 세컨브랜드 안가는이유 : 다시 생각날 맛은 아닌  카레라이스 : 비교하자면 아비꼬와 비슷하지만 살짝 더 나은 편, 후추 매운맛으로 목이 따가운, 돈까스가 맛있어 토핑으로 올리는게 좋을듯 카레우동 : 밥이 같이 나오지만 면 양이 적은', 1: '카레+돈까스 먹엇는데  카레가 달았음  가성비는 별로', 2: '가격대가 비싼 편', 3: '좋아요', 4: '다진 고기가 들어간 카레가 취향은 아니지만 맛은 있다. 카레보다 돈가스를 참 잘 튀겨내는 곳.하지만 작은 편이다. 음식퀄리티나 만족도에 비해 비싼 가격이 조금 흠이라 생각되는 곳', 5: '돈카츠는 바삭하고 카레는 무난함 가격은 쫌 있음', 6: '좋아요', 7: '자주가는 곳 중 한 곳.  카레우동에 들어가는 성분이 바뀌며, 맛은 약간 달라짐.  단무지도 변경 됨.   사장님도 갑자기 안 보이심..바뀐건가..?', 8: '최고예요', 9: '낫배드', 10: '최고예요', 11: '깔끔하고 부드러운 맛', 12: '오고 나갈 때 일본어로 인사를 해주면 비스므리한 카레색을 낸다해서 다 일본식 카레전문점인건가?  카레가 아닌 카레국마냥 걸쭉함이라곤 전혀 없는 점도에, 묽고 밍밍한 맛. 거기에 함께 주문한 돈가스는 잡내에 뻑뻑함까지.. (바삭함은 바로 튀겨내여 괜찮았다지만...)  아무리 개인 입맛의 차이가 있다 하지만, 주방일 스스로 일본카레라 자신있게 말할 수 있을까 ...더보기', 13: '+카레오, 고로케 모두 맛있음.', 14: '조금 아쉬워요', 15: '좋아요', 16: '카레 좋네요! 나름 담백, 깊은 맛!', 17: '좋아요', 18: '좋아요', 19: '좋아요', 20: '보통이에요', 21: '최고예요'}</t>
+          <t>{0: '오래전 단골인데 변한건지 돈이 너무 아까웠어요 ', 1: '펄펄끓으며 나오는 삼계탕에 함께 나오는 마늘을 넣어 익혀 먹으면 맛있음 닭가슴살도 퍽퍽하지 않음 속에 찹쌀이 들어있고 국물도 맑다 여의도에서 30년 근무하신 분이 추천해주신 곳  많이 바쁜 점심시간대에 가서 서비스는 잘 모르겠음', 2: '맛은 있는데 사장님들끼리 싸우시고 체할거같아요.. 그리고 너무 불친절..', 3: '흑미삼계탕 강추~', 4: '삼계탕이랑 전기구이 진짜 맛있게 먹음! 특히 전기구이 바로 나오자마자 뜯으면 핵맛있음 삼계탕을 별로 즐겨먹는 편은 아니라 다른집은 어떤지 모르겠는데 이 집 닭고기 식감 정도면 훌륭하다고 생각 너무 부드러워서 무르지도 않고 적당히 쫀쫀!! 양도 넉넉해서 배 빵빵터짐', 5: '다시는 먹고 싶지 않은 삼계탕', 6: '여러가지 삼계탕! 좋아요', 7: '핵불친절. 장사잘된다고 초심 잃으신듯. 발밟고 사과도 없고 이름 불럿다고 우기심ㅎ', 8: '보통이에요', 9: '보통이에요', 10: '조금 아쉬워요', 11: '여의도!', 12: '+들깨삼계탕 내 입맛에는 여의도 삼계탕이 더 맞는 듯.', 13: '좋아요', 14: '삼계탕', 15: '여의도 삼계탕 최고 줄서서 먹어야됨', 16: '그냥 맛있어요 전기구이^^', 17: '들깨삼계탕', 18: '삼계탕 @', 19: '조금 아쉬워요', 20: '좋아요', 21: '찰흑미삼계탕 먹었었는데 맛 좋았어요. 건강해지는 느낌인데 함께주는 인삼주한잔이 향 되게좋네용', 22: '너무 불친절해요  ', 23: '좋아요', 24: '최고예요', 25: '보통이에요', 26: '파낙스 - 삼계탕. ', 27: '보통이에요', 28: '좋아요', 29: '최고예요', 30: '좋아요', 31: '좋아요', 32: '아 여긴 진짜 추천', 33: '좋아요', 34: '여의도하면 추억나는 삼계탕', 35: '윙스푼', 36: '닭전기구이와 겨울철에만하는 닭매운탕이 나름맛있다.', 37: '삼계탕 냠냠', 38: '영양센턴지 알고 테이크 아웃 하러 들어갔다가 나올때까지 파낙스인지 몰랐음 ㅋ 영양센터만큼이나 맛깔스러운 삼계탕..좋~습니다~', 39: '먹고나면 든든~~~', 40: '너무 맛있는 삼계탕집. 찰흑미삼계탕15000, 삼계탕 13,500, 전기구이 13,000. 삼계탕 안에 닭도 크고 국물도 너무 맛있음. 찰흑가 좀더 구수하고 삼계탕은 깔끔한맛. 전기구이는 겉은 바삭하고 속은 부드러운게 너무 맛있음.!!!', 41: '', 42: '전기구이♥', 43: '흑미삼계탕과 전기구이 강추~', 44: '세상에서제일맛있는삼계탕', 45: '좋지만,,', 46: '인천에서 4/20일 여의도 벗꽃 구경 갔다가 우연히 간 파낙스 삼계탕집에서 찰흑삼게탕을 먹었는데 그 맛이 다른 집에 비해 톡특하던군요 주위에 있는 분에게 추천하고 싶은 집입니다,여의도에 가면 꼭 다시 한번 가고 싶은 집입니다', 47: '엄청 불친절 합니다. 제가 예약을 하려고 했는데 예약 필요없다네요. 가서 자리에 앉는 사람이 임자랍니다. 맛도 그닥...왜 그렇게들 줄서서 먹으려고 하는지 이해할 수가 없네요.', 48: '삼계탕 맛 최고!', 49: '맛은 있을지도 모르지만, 어느날 좀 일찍 삼계탕을 먹으러 갔었는데 주방에서 못볼것을 봤지요. 주방세제로 인삼을 씻는 것을 봤어요. 그리고 깨끗하게 씻는 것도 아니구 물로 대충  헹구더군요. 그다음부턴 절대.', 50: '삼계탕은 어느 집과 비교해도 그다지 빠지지 않는'}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{0: '3', 1: '3', 2: '1', 3: '4', 4: '3', 5: '3', 6: '4', 7: '3', 8: '5', 9: '4', 10: '5', 11: '4', 12: '1', 13: '4', 14: '2', 15: '4', 16: '4', 17: '4', 18: '4', 19: '4', 20: '3', 21: '5'}</t>
+          <t>{0: '1', 1: '4', 2: '1', 3: '5', 4: '5', 5: '1', 6: '4', 7: '1', 8: '3', 9: '3', 10: '2', 11: '3', 12: '2', 13: '4', 14: '4', 15: '5', 16: '4', 17: '4', 18: '4', 19: '2', 20: '4', 21: '4', 22: '1', 23: '4', 24: '5', 25: '3', 26: '3', 27: '3', 28: '4', 29: '5', 30: '4', 31: '4', 32: '5', 33: '4', 34: '3', 35: '', 36: '', 37: '', 38: '', 39: '', 40: '', 41: '', 42: '', 43: '', 44: '', 45: '', 46: '5', 47: '1', 48: '4', 49: '1', 50: '5'}</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>{0: '2020.07.24', 1: '2020.07.11', 2: '2020.07.09', 3: '2020.06.04', 4: '2020.05.23', 5: '2019.09.08', 6: '2019.09.08', 7: '2019.08.16', 8: '2019.08.11', 9: '2019.07.07', 10: '2019.06.08', 11: '2019.05.19', 12: '2019.05.18', 13: '2019.05.16', 14: '2019.01.12', 15: '2017.08.02', 16: '2018.04.18', 17: '2018.03.22', 18: '2017.06.01', 19: '2017.05.28', 20: '2017.04.11', 21: '2016.06.05'}</t>
+          <t>{0: '2020.07.30', 1: '2020.07.14', 2: '2020.07.07', 3: '2020.06.18', 4: '2019.10.27', 5: '2019.06.08', 6: '2018.09.19', 7: '2018.07.16', 8: '2017.03.08', 9: '2017.02.17', 10: '2017.01.12', 11: '2016.10.23', 12: '2016.10.05', 13: '2016.08.31', 14: '2016.06.12', 15: '2016.05.04', 16: '2016.03.18', 17: '2018.09.14', 18: '2018.07.03', 19: '2018.06.27', 20: '2018.06.23', 21: '2018.01.06', 22: '2017.10.11', 23: '2017.06.22', 24: '2017.02.17', 25: '2017.01.23', 26: '2016.12.04', 27: '2016.11.28', 28: '2016.08.14', 29: '2016.07.14', 30: '2016.05.19', 31: '2016.04.11', 32: '2016.03.31', 33: '2016.03.22', 34: '2016.03.11', 35: '2014.02.05', 36: '2013.09.13', 37: '2013.09.02', 38: '2013.08.23', 39: '2013.08.18', 40: '2013.08.15', 41: '2013.08.12', 42: '2013.08.07', 43: '2013.08.07', 44: '2013.08.06', 45: '2013.06.14', 46: '2012.04.21', 47: '2010.06.28', 48: '2010.03.05', 49: '2009.12.12', 50: '2009.11.24'}</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -2278,34 +2346,34 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://place.map.kakao.com/27544748</t>
+          <t>https://place.map.kakao.com/13070102</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KAREO</t>
+          <t>슈치쿠</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{0: '가야는이유 : 이와타에서 운영하는 세컨브랜드 안가는이유 : 다시 생각날 맛은 아닌  카레라이스 : 비교하자면 아비꼬와 비슷하지만 살짝 더 나은 편, 후추 매운맛으로 목이 따가운, 돈까스가 맛있어 토핑으로 올리는게 좋을듯 카레우동 : 밥이 같이 나오지만 면 양이 적은', 1: '카레+돈까스 먹엇는데  카레가 달았음  가성비는 별로', 2: '가격대가 비싼 편', 3: '좋아요', 4: '다진 고기가 들어간 카레가 취향은 아니지만 맛은 있다. 카레보다 돈가스를 참 잘 튀겨내는 곳.하지만 작은 편이다. 음식퀄리티나 만족도에 비해 비싼 가격이 조금 흠이라 생각되는 곳', 5: '돈카츠는 바삭하고 카레는 무난함 가격은 쫌 있음', 6: '좋아요', 7: '자주가는 곳 중 한 곳.  카레우동에 들어가는 성분이 바뀌며, 맛은 약간 달라짐.  단무지도 변경 됨.   사장님도 갑자기 안 보이심..바뀐건가..?', 8: '최고예요', 9: '낫배드', 10: '최고예요', 11: '깔끔하고 부드러운 맛', 12: '오고 나갈 때 일본어로 인사를 해주면 비스므리한 카레색을 낸다해서 다 일본식 카레전문점인건가?  카레가 아닌 카레국마냥 걸쭉함이라곤 전혀 없는 점도에, 묽고 밍밍한 맛. 거기에 함께 주문한 돈가스는 잡내에 뻑뻑함까지.. (바삭함은 바로 튀겨내여 괜찮았다지만...)  아무리 개인 입맛의 차이가 있다 하지만, 주방일 스스로 일본카레라 자신있게 말할 수 있을까 ...더보기', 13: '+카레오, 고로케 모두 맛있음.', 14: '조금 아쉬워요', 15: '좋아요', 16: '카레 좋네요! 나름 담백, 깊은 맛!', 17: '좋아요', 18: '좋아요', 19: '좋아요', 20: '보통이에요', 21: '최고예요'}</t>
+          <t>{0: 'ランチ お任せ Only', 1: '뷰값인지 비싼데 그만큼의 맛은 아님. 1점을 주게된 이유는 서버의 전문성이 너무 떨어진다는 것에 실망해서임. 우리가 마지막 손님이었는지 어쨋는지 퇴근하고 싶은 마음은 알겠지만 계속 보채듯이 룸 문 열고 확인하고.. 대기업에서 운영하는 고급 레스토랑이라기엔 서비스가 수준이하였음. 재교육요망', 2: '저녁 룸메뉴 스시 코스로 시켰습니다 기념일이라 기대하고 갔는데 가성비가 너무 꽝이네요 ㅜ ㅜ  13만원 코스인데 3만원짜리 코스인줄... 전망값이라고 하기에도 너무......', 3: '전망값. 다다미. 룸 ', 4: '맛은 평범  경치/분위기는 좋음', 5: '최고예요', 6: '정갈하고 푸짐합니다. 다양한 해산물 맛을 제대로 맛봤습니다. 시원한 뷰 때문이라도 다시 오고싶어요', 7: '좋아요', 8: '맛은 평범,양호한 편이나 깔끔한 구성에 훌륭한 서비스, 좋은 전망', 9: '전망 굳. 분위기 굳.  단점... 가격 쎄다.  고급음식점을 적잖이 다녀봤는데 개인적으로 가성비는 별로임 ', 10: '음식 퀄리티는 높으나 양이 적은편 전망은 쥑임~~', 11: '전망좋은, 살짝 밋밋한..', 12: '씸쓴 생퐈~~슈치쿠에 반해버린 우리들  또와쑝~~ㅋㅋ 아직 먹고 있는중이지만~', 13: '63빌딩 58층 ㅎㅎ 맛있고 전망은 예술이다~~', 14: '코우지쉐프 믿고 먹는곳', 15: '전망도 맛도 굿~~임홍식 책임 쉐프의 장인정신이 돋보이는 고급 재패니즈 레스토랑', 16: '자갓에 소개된 곳 맛은 기본, 전망은 덤  나의 평가 : ++++', 17: '63 회 자갓', 18: '간만에 여의도 와서 식사', 19: '나카무라 코우지 셰프의 오마카세 맛있었어요~', 20: '우리나라 최고층에서 신선한 스시를?ㅎ 분위기도 맛도 최고~^^'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{0: '3', 1: '3', 2: '1', 3: '4', 4: '3', 5: '3', 6: '4', 7: '3', 8: '5', 9: '4', 10: '5', 11: '4', 12: '1', 13: '4', 14: '2', 15: '4', 16: '4', 17: '4', 18: '4', 19: '4', 20: '3', 21: '5'}</t>
+          <t>{0: '3', 1: '1', 2: '1', 3: '5', 4: '3', 5: '5', 6: '4', 7: '4', 8: '3', 9: '2', 10: '', 11: '', 12: '', 13: '', 14: '', 15: '', 16: '', 17: '', 18: '', 19: '', 20: '5'}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{0: '2020.07.24', 1: '2020.07.11', 2: '2020.07.09', 3: '2020.06.04', 4: '2020.05.23', 5: '2019.09.08', 6: '2019.09.08', 7: '2019.08.16', 8: '2019.08.11', 9: '2019.07.07', 10: '2019.06.08', 11: '2019.05.19', 12: '2019.05.18', 13: '2019.05.16', 14: '2019.01.12', 15: '2017.08.02', 16: '2018.04.18', 17: '2018.03.22', 18: '2017.06.01', 19: '2017.05.28', 20: '2017.04.11', 21: '2016.06.05'}</t>
+          <t>{0: '2020.03.23', 1: '2019.10.08', 2: '2018.09.30', 3: '2017.10.15', 4: '2016.03.25', 5: '2016.03.12', 6: '2018.08.11', 7: '2018.01.14', 8: '2018.01.11', 9: '2016.03.26', 10: '2014.04.28', 11: '2014.03.30', 12: '2013.09.27', 13: '2013.08.24', 14: '2013.08.18', 15: '2013.08.14', 16: '2013.07.23', 17: '2013.06.30', 18: '2013.06.09', 19: '2013.04.04', 20: '2012.06.28'}</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>